--- a/pest/result_10it_1Mind.xlsx
+++ b/pest/result_10it_1Mind.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
     <t>Mortos</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Vivos</t>
   </si>
 </sst>
 </file>
@@ -569,6 +569,454 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saudaveis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>598991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>521245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Imunes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183570</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209330</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>228530</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pseudo-Imunes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infectados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>422327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mortos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>415721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vivos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>812994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>785613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>716482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>664271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>658669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>584279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84918656"/>
+        <c:axId val="84920192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84918656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84920192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84920192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84918656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,7 +1307,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,6 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <f>SUM(B2:E2)</f>
         <v>1000000</v>
       </c>
     </row>
@@ -930,7 +1379,8 @@
         <v>99453</v>
       </c>
       <c r="G3">
-        <v>1000000</v>
+        <f t="shared" ref="G3:G12" si="0">SUM(B3:E3)</f>
+        <v>900547</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -953,7 +1403,8 @@
         <v>117801</v>
       </c>
       <c r="G4">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>882199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -976,7 +1427,8 @@
         <v>120842</v>
       </c>
       <c r="G5">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>879158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -999,7 +1451,8 @@
         <v>263388</v>
       </c>
       <c r="G6">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>736612</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1022,7 +1475,8 @@
         <v>187006</v>
       </c>
       <c r="G7">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>812994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1045,7 +1499,8 @@
         <v>214387</v>
       </c>
       <c r="G8">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>785613</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1068,7 +1523,8 @@
         <v>283518</v>
       </c>
       <c r="G9">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>716482</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1091,7 +1547,8 @@
         <v>335729</v>
       </c>
       <c r="G10">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>664271</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1114,7 +1571,8 @@
         <v>341331</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>658669</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1137,10 +1595,12 @@
         <v>415721</v>
       </c>
       <c r="G12">
-        <v>1000000</v>
+        <f t="shared" si="0"/>
+        <v>584279</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>